--- a/5_Balmer_Series/Balmer Series.xlsx
+++ b/5_Balmer_Series/Balmer Series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlr\OneDrive\Documents\Labs\5_Balmer_Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42120DFD-6E73-41E8-9F36-BA2EA1064209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ACE51B-6EE6-4920-AC20-798918C5F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18810" yWindow="270" windowWidth="15165" windowHeight="17250" xr2:uid="{BDECA532-844B-41B6-8576-FA9F887CEE53}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{BDECA532-844B-41B6-8576-FA9F887CEE53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t>Zero Point</t>
   </si>
@@ -117,13 +117,10 @@
     <t>1/lambda</t>
   </si>
   <si>
-    <t>1/eta^2</t>
-  </si>
-  <si>
     <t>σ</t>
   </si>
   <si>
-    <t>σ l</t>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -501,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA3986-6848-4A1A-AAC1-7AC2921C9E3A}">
-  <dimension ref="A2:Q70"/>
+  <dimension ref="A2:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +892,7 @@
         <v>81.625</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>81</v>
       </c>
@@ -907,7 +904,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>7</v>
       </c>
@@ -915,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -926,7 +923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -958,16 +955,13 @@
         <v>25</v>
       </c>
       <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="s">
         <v>27</v>
       </c>
-      <c r="P37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1</v>
       </c>
@@ -1008,27 +1002,23 @@
         <v>4.8102343335550355E-7</v>
       </c>
       <c r="M38">
-        <f>AVERAGE(K38:L38)</f>
-        <v>4.9721884621516124E-7</v>
+        <f>AVERAGE(K38:L39)</f>
+        <v>4.9527479553569507E-7</v>
       </c>
       <c r="N38">
         <f>1/M38</f>
-        <v>2011186.8397829605</v>
+        <v>2019081.1424562563</v>
       </c>
       <c r="O38">
-        <f>_xlfn.STDEV.S(K38:L38) / SQRT(2)</f>
-        <v>1.6195412859657688E-8</v>
+        <f>_xlfn.STDEV.S(K38:L39)</f>
+        <v>1.7760732187570033E-8</v>
       </c>
       <c r="P38">
-        <f>(1/M38^2)*(O38)</f>
-        <v>65508.380175317012</v>
-      </c>
-      <c r="Q38">
-        <f>1/(4^2)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <f>(1/M38^2)*O38</f>
+        <v>72404.97549921053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1068,94 +1058,36 @@
         <f>$K$24*SIN(RADIANS(J39))/$B39</f>
         <v>4.7907187575750849E-7</v>
       </c>
-      <c r="M39">
-        <f t="shared" ref="M39:M61" si="0">AVERAGE(K39:L39)</f>
-        <v>4.9333074485622911E-7</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ref="N39:N61" si="1">1/M39</f>
-        <v>2027037.6627173906</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O61" si="2">_xlfn.STDEV.S(K39:L39) / SQRT(2)</f>
-        <v>1.4258869098720573E-8</v>
-      </c>
-      <c r="P39">
-        <f t="shared" ref="P39:P61" si="3">(1/M39^2)*(O39)</f>
-        <v>58588.00610387059</v>
-      </c>
-      <c r="Q39">
-        <f>1/(8^2)</f>
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="P40" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="P41" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="P42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="P43" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P44" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P46" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="P47" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1165,12 +1097,8 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-      <c r="P48" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>1</v>
       </c>
@@ -1202,17 +1130,13 @@
         <v>25</v>
       </c>
       <c r="O49" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" t="s">
         <v>27</v>
       </c>
-      <c r="P49" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1</v>
       </c>
@@ -1253,27 +1177,23 @@
         <v>6.630253259297327E-7</v>
       </c>
       <c r="M50">
-        <f t="shared" si="0"/>
-        <v>6.7808268259109483E-7</v>
+        <f>AVERAGE(K50:L51)</f>
+        <v>7.1952866064140315E-7</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
-        <v>1474746.4072947449</v>
+        <f t="shared" ref="N39:N61" si="0">1/M50</f>
+        <v>1389798.7039301239</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
-        <v>1.5057356661362129E-8</v>
+        <f>_xlfn.STDEV.S(K50:L51)</f>
+        <v>7.1605206296030701E-8</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
-        <v>32747.898169064702</v>
-      </c>
-      <c r="Q50">
-        <f>1/(3^2)</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P39:P61" si="1">(1/M50^2)*O50</f>
+        <v>138308.35149243561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2</v>
       </c>
@@ -1307,76 +1227,28 @@
         <f>$K$24*SIN(RADIANS(J51))/$B51</f>
         <v>8.2444664961247028E-7</v>
       </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
-        <v>7.6097463869171136E-7</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="1"/>
-        <v>1314104.2410023382</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
-        <v>6.3472010920758864E-8</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="3"/>
-        <v>109607.90871994727</v>
-      </c>
-      <c r="Q51">
-        <f>1/6^2</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="P52" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="P53" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="P54" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>6</v>
       </c>
-      <c r="P55" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P56" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P57" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1386,24 +1258,16 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="P58" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="P59" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>1</v>
       </c>
@@ -1435,17 +1299,13 @@
         <v>25</v>
       </c>
       <c r="O60" t="s">
+        <v>26</v>
+      </c>
+      <c r="P60" t="s">
         <v>27</v>
       </c>
-      <c r="P60" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1</v>
       </c>
@@ -1486,37 +1346,33 @@
         <v>4.3394013930955466E-7</v>
       </c>
       <c r="M61">
+        <f>AVERAGE(K61:L61)</f>
+        <v>4.4888064219940842E-7</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="0"/>
-        <v>4.4888064219940842E-7</v>
-      </c>
-      <c r="N61">
+        <v>2227763.6992770233</v>
+      </c>
+      <c r="O61">
+        <f>_xlfn.STDEV.S(K61:L61)</f>
+        <v>2.1129061815505577E-8</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="1"/>
-        <v>2227763.6992770233</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
-        <v>1.4940502889853736E-8</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="3"/>
-        <v>74148.686438952616</v>
-      </c>
-      <c r="Q61">
-        <f>1/5^2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>104862.07799411679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4</v>
       </c>
